--- a/src/test/resources/test5.xlsx
+++ b/src/test/resources/test5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve">
 id
@@ -125,9 +125,6 @@
     <t xml:space="preserve">
 标签4
 </t>
-  </si>
-  <si>
-    <t>8a312e77dcfa4354ad44ea9a71427c1c</t>
   </si>
   <si>
     <t>毛大军测试</t>
@@ -209,9 +206,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
     </font>
   </fonts>
   <fills count="4">
@@ -315,13 +312,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -494,9 +491,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -576,7 +573,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -604,10 +601,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -863,9 +860,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1153,7 +1150,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1181,10 +1178,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1521,74 +1518,72 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="3">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C2" t="s" s="3">
         <v>24</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>3000</v>
       </c>
       <c r="E2" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="3">
         <v>26</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="G2" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="H2" t="s" s="3">
         <v>28</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>29</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="L2" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="M2" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="N2" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="O2" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="P2" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="P2" t="s" s="3">
+      <c r="Q2" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="Q2" t="s" s="3">
+      <c r="R2" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="R2" t="s" s="3">
+      <c r="S2" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="S2" t="s" s="3">
+      <c r="T2" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="T2" t="s" s="3">
+      <c r="U2" t="s" s="3">
         <v>40</v>
       </c>
-      <c r="U2" t="s" s="3">
+      <c r="V2" t="s" s="3">
         <v>41</v>
       </c>
-      <c r="V2" t="s" s="3">
+      <c r="W2" t="s" s="3">
         <v>42</v>
-      </c>
-      <c r="W2" t="s" s="3">
-        <v>43</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
